--- a/biology/Zoologie/Fausse_patte/Fausse_patte.xlsx
+++ b/biology/Zoologie/Fausse_patte/Fausse_patte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fausses pattes, chez les insectes, sont de petites excroissances charnues sous l'abdomen de la plupart des chenilles des lépidoptères (papillons) et des symphytes, ainsi que chez certains diptères. Ce ne sont pas des pattes à proprement parler car elles ne sont pas segmentées et ne sont pas originaires du thorax. Elles portent généralement des crochets sclérotisés disposés en bande ou en cercle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fausses pattes, chez les insectes, sont de petites excroissances charnues sous l'abdomen de la plupart des chenilles des lépidoptères (papillons) et des symphytes, ainsi que chez certains diptères. Ce ne sont pas des pattes à proprement parler car elles ne sont pas segmentées et ne sont pas originaires du thorax. Elles portent généralement des crochets sclérotisés disposés en bande ou en cercle.
 </t>
         </is>
       </c>
